--- a/backend/dataset/交易客服.xlsx
+++ b/backend/dataset/交易客服.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macxin/Downloads/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F642E43C-49BB-F147-9452-10E5453C5752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4C237-A634-4E4E-84EE-20FCA3EBDE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1880" windowWidth="27300" windowHeight="16360" xr2:uid="{7E99A97E-209F-7947-8BF7-4BD75939DEF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>错误类型错误原因（评测标准对应的错误）</t>
   </si>
@@ -121,6 +121,13 @@
   </si>
   <si>
     <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服帮助及交易</t>
+  </si>
+  <si>
+    <t>业务分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +183,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -197,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,13 +227,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,23 +264,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,253 +619,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC698363-FADA-A14B-9963-9DDC13DE0BA7}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
         <v>45784</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
         <v>45812</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
         <v>45807</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
         <v>45784</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
         <v>45812</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
         <v>45793</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
       </c>
       <c r="D7" s="9">
         <v>2</v>
       </c>
       <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
         <v>45804</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
         <v>45783</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
         <v>45800</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10" xr:uid="{7F905A37-74EE-4C45-A5EC-7928120D2533}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F10" xr:uid="{7F905A37-74EE-4C45-A5EC-7928120D2533}">
       <formula1>"0,1,2,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="问题（证券固定评测集说明文档）" xr:uid="{D2522C36-2B29-E54C-AA3A-6E97597F2394}"/>
+    <hyperlink ref="C1" r:id="rId1" display="问题（证券固定评测集说明文档）" xr:uid="{D2522C36-2B29-E54C-AA3A-6E97597F2394}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
